--- a/Assets/Res/Arts/FBX/Player_001/Player_001AnimCond.xlsx
+++ b/Assets/Res/Arts/FBX/Player_001/Player_001AnimCond.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>第一行备注行
 第二行描述行</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>hit</t>
+  </si>
+  <si>
+    <t>hitBack</t>
   </si>
   <si>
     <t>Dead</t>
@@ -113,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -124,6 +127,142 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,142 +273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -280,25 +283,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,7 +403,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,145 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +477,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +523,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,30 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1186,13 +1189,13 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1201,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1261,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>

--- a/Assets/Res/Arts/FBX/Player_001/Player_001AnimCond.xlsx
+++ b/Assets/Res/Arts/FBX/Player_001/Player_001AnimCond.xlsx
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,25 +137,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,9 +159,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,49 +214,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,8 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,10 +252,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -283,12 +283,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,169 +433,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,17 +477,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,26 +512,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +540,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -560,17 +564,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,10 +594,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,121 +606,121 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
